--- a/Objectives.xlsx
+++ b/Objectives.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Personel</t>
   </si>
   <si>
-    <t>30/05/2017</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Create page</t>
   </si>
   <si>
-    <t>Preview page</t>
-  </si>
-  <si>
     <t>Grid page</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>Chen</t>
   </si>
   <si>
-    <t>31/05/2017</t>
-  </si>
-  <si>
     <t>Cookie closed messages</t>
   </si>
   <si>
@@ -75,30 +66,22 @@
   </si>
   <si>
     <t>Setting up Github and Azure database</t>
+  </si>
+  <si>
+    <t>Preview message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,22 +95,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -139,26 +112,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,113 +449,177 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="6">
+        <v>42824</v>
+      </c>
+      <c r="C2" s="6">
+        <v>42824</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="6">
+        <v>42824</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42828</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.7</v>
+        <v>5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="6">
+        <v>42824</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42828</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.5</v>
+        <v>5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>42825</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>42828</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6CAF01C3-5D31-4333-8B3F-1E1125A42349}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0BFA4B69-254F-4BEB-ACB3-131CAF7732F7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6CAF01C3-5D31-4333-8B3F-1E1125A42349}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0BFA4B69-254F-4BEB-ACB3-131CAF7732F7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Objectives.xlsx
+++ b/Objectives.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repositories\BroadcastSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muche\Documents\TeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="5690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,9 +74,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -124,17 +124,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,18 +450,18 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -494,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -511,7 +512,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -528,7 +529,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -538,8 +539,11 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -550,12 +554,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>

--- a/Objectives.xlsx
+++ b/Objectives.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,11 +536,14 @@
       <c r="B5" s="4">
         <v>42825</v>
       </c>
+      <c r="C5" s="4">
+        <v>42828</v>
+      </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="8">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">

--- a/Objectives.xlsx
+++ b/Objectives.xlsx
@@ -543,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="8">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
